--- a/timeex.xlsx
+++ b/timeex.xlsx
@@ -175,7 +175,7 @@
     <t>2021-09-30 00:00:00</t>
   </si>
   <si>
-    <t>2022-02-07 00:00:00</t>
+    <t>2022-01-20 00:00:00</t>
   </si>
   <si>
     <t>0</t>

--- a/timeex.xlsx
+++ b/timeex.xlsx
@@ -175,7 +175,7 @@
     <t>2021-09-30 00:00:00</t>
   </si>
   <si>
-    <t>2022-01-20 00:00:00</t>
+    <t>2022-02-06 00:00:00</t>
   </si>
   <si>
     <t>0</t>

--- a/timeex.xlsx
+++ b/timeex.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7270"/>
+    <workbookView windowWidth="19200" windowHeight="7270"/>
   </bookViews>
   <sheets>
     <sheet name="analy" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18059" uniqueCount="1156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18059" uniqueCount="1168">
   <si>
     <t>0</t>
   </si>
@@ -3481,7 +3481,43 @@
     <t>2022-09-30 00:00:00</t>
   </si>
   <si>
-    <t>2022-10-31 00:00:00</t>
+    <t>2022-12-12 00:00:00</t>
+  </si>
+  <si>
+    <t>000733</t>
+  </si>
+  <si>
+    <t>600884</t>
+  </si>
+  <si>
+    <t>002180</t>
+  </si>
+  <si>
+    <t>002756</t>
+  </si>
+  <si>
+    <t>300769</t>
+  </si>
+  <si>
+    <t>600039</t>
+  </si>
+  <si>
+    <t>600803</t>
+  </si>
+  <si>
+    <t>601615</t>
+  </si>
+  <si>
+    <t>601689</t>
+  </si>
+  <si>
+    <t>605117</t>
+  </si>
+  <si>
+    <t>688187</t>
+  </si>
+  <si>
+    <t>688303</t>
   </si>
 </sst>
 </file>
@@ -4461,7 +4497,7 @@
   <sheetPr/>
   <dimension ref="A1:KO60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -57876,34 +57912,34 @@
         <v>314</v>
       </c>
       <c r="E60" t="s">
-        <v>1045</v>
+        <v>315</v>
       </c>
       <c r="F60" t="s">
-        <v>315</v>
+        <v>623</v>
       </c>
       <c r="G60" t="s">
-        <v>623</v>
+        <v>318</v>
       </c>
       <c r="H60" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="I60" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="J60" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K60" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="L60" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M60" t="s">
-        <v>345</v>
+        <v>625</v>
       </c>
       <c r="N60" t="s">
-        <v>625</v>
+        <v>1156</v>
       </c>
       <c r="O60" t="s">
         <v>352</v>
@@ -57990,19 +58026,19 @@
         <v>443</v>
       </c>
       <c r="AQ60" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="AR60" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="AS60" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="AT60" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="AU60" t="s">
-        <v>467</v>
+        <v>627</v>
       </c>
       <c r="AV60" t="s">
         <v>472</v>
@@ -58014,40 +58050,40 @@
         <v>484</v>
       </c>
       <c r="AY60" t="s">
+        <v>1157</v>
+      </c>
+      <c r="AZ60" t="s">
         <v>500</v>
       </c>
-      <c r="AZ60" t="s">
+      <c r="BA60" t="s">
         <v>501</v>
       </c>
-      <c r="BA60" t="s">
+      <c r="BB60" t="s">
         <v>503</v>
       </c>
-      <c r="BB60" t="s">
+      <c r="BC60" t="s">
         <v>506</v>
       </c>
-      <c r="BC60" t="s">
+      <c r="BD60" t="s">
         <v>513</v>
       </c>
-      <c r="BD60" t="s">
+      <c r="BE60" t="s">
         <v>517</v>
       </c>
-      <c r="BE60" t="s">
+      <c r="BF60" t="s">
         <v>522</v>
       </c>
-      <c r="BF60" t="s">
+      <c r="BG60" t="s">
         <v>643</v>
       </c>
-      <c r="BG60" t="s">
+      <c r="BH60" t="s">
         <v>703</v>
       </c>
-      <c r="BH60" t="s">
+      <c r="BI60" t="s">
         <v>1133</v>
       </c>
-      <c r="BI60" t="s">
+      <c r="BJ60" t="s">
         <v>630</v>
-      </c>
-      <c r="BJ60" t="s">
-        <v>531</v>
       </c>
       <c r="BK60" t="s">
         <v>533</v>
@@ -58071,700 +58107,700 @@
         <v>543</v>
       </c>
       <c r="BR60" t="s">
-        <v>544</v>
+        <v>798</v>
       </c>
       <c r="BS60" t="s">
-        <v>798</v>
+        <v>548</v>
       </c>
       <c r="BT60" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="BU60" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="BV60" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="BW60" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="BX60" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="BY60" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="BZ60" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="CA60" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="CB60" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="CC60" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="CD60" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="CE60" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="CF60" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="CG60" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="CH60" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="CI60" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="CJ60" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="CK60" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="CL60" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="CM60" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="CN60" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="CO60" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="CP60" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="CQ60" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="CR60" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="CS60" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="CT60" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="CU60" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="CV60" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="CW60" t="s">
-        <v>639</v>
+        <v>653</v>
       </c>
       <c r="CX60" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="CY60" t="s">
-        <v>655</v>
+        <v>671</v>
       </c>
       <c r="CZ60" t="s">
-        <v>663</v>
+        <v>681</v>
       </c>
       <c r="DA60" t="s">
-        <v>671</v>
+        <v>682</v>
       </c>
       <c r="DB60" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="DC60" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="DD60" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="DE60" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="DF60" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="DG60" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="DH60" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="DI60" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="DJ60" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="DK60" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="DL60" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="DM60" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="DN60" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="DO60" t="s">
-        <v>716</v>
+        <v>732</v>
       </c>
       <c r="DP60" t="s">
-        <v>722</v>
+        <v>740</v>
       </c>
       <c r="DQ60" t="s">
-        <v>732</v>
+        <v>755</v>
       </c>
       <c r="DR60" t="s">
-        <v>740</v>
+        <v>762</v>
       </c>
       <c r="DS60" t="s">
-        <v>755</v>
+        <v>770</v>
       </c>
       <c r="DT60" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
       <c r="DU60" t="s">
-        <v>768</v>
+        <v>777</v>
       </c>
       <c r="DV60" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="DW60" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="DX60" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="DY60" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
       <c r="DZ60" t="s">
-        <v>779</v>
+        <v>792</v>
       </c>
       <c r="EA60" t="s">
-        <v>784</v>
+        <v>793</v>
       </c>
       <c r="EB60" t="s">
-        <v>787</v>
+        <v>801</v>
       </c>
       <c r="EC60" t="s">
-        <v>792</v>
+        <v>804</v>
       </c>
       <c r="ED60" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
       <c r="EE60" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="EF60" t="s">
-        <v>804</v>
+        <v>813</v>
       </c>
       <c r="EG60" t="s">
-        <v>805</v>
+        <v>814</v>
       </c>
       <c r="EH60" t="s">
-        <v>806</v>
+        <v>824</v>
       </c>
       <c r="EI60" t="s">
-        <v>813</v>
+        <v>827</v>
       </c>
       <c r="EJ60" t="s">
-        <v>814</v>
+        <v>832</v>
       </c>
       <c r="EK60" t="s">
-        <v>824</v>
+        <v>838</v>
       </c>
       <c r="EL60" t="s">
-        <v>827</v>
+        <v>845</v>
       </c>
       <c r="EM60" t="s">
-        <v>832</v>
+        <v>851</v>
       </c>
       <c r="EN60" t="s">
-        <v>838</v>
+        <v>859</v>
       </c>
       <c r="EO60" t="s">
-        <v>845</v>
+        <v>860</v>
       </c>
       <c r="EP60" t="s">
-        <v>851</v>
+        <v>862</v>
       </c>
       <c r="EQ60" t="s">
-        <v>859</v>
+        <v>867</v>
       </c>
       <c r="ER60" t="s">
-        <v>860</v>
+        <v>869</v>
       </c>
       <c r="ES60" t="s">
-        <v>862</v>
+        <v>872</v>
       </c>
       <c r="ET60" t="s">
-        <v>865</v>
+        <v>873</v>
       </c>
       <c r="EU60" t="s">
-        <v>867</v>
+        <v>886</v>
       </c>
       <c r="EV60" t="s">
-        <v>869</v>
+        <v>888</v>
       </c>
       <c r="EW60" t="s">
-        <v>872</v>
+        <v>890</v>
       </c>
       <c r="EX60" t="s">
-        <v>873</v>
+        <v>895</v>
       </c>
       <c r="EY60" t="s">
-        <v>886</v>
+        <v>896</v>
       </c>
       <c r="EZ60" t="s">
-        <v>888</v>
+        <v>902</v>
       </c>
       <c r="FA60" t="s">
-        <v>890</v>
+        <v>904</v>
       </c>
       <c r="FB60" t="s">
-        <v>895</v>
+        <v>914</v>
       </c>
       <c r="FC60" t="s">
-        <v>896</v>
+        <v>915</v>
       </c>
       <c r="FD60" t="s">
-        <v>899</v>
+        <v>916</v>
       </c>
       <c r="FE60" t="s">
-        <v>902</v>
+        <v>921</v>
       </c>
       <c r="FF60" t="s">
-        <v>904</v>
+        <v>922</v>
       </c>
       <c r="FG60" t="s">
-        <v>914</v>
+        <v>924</v>
       </c>
       <c r="FH60" t="s">
-        <v>915</v>
+        <v>930</v>
       </c>
       <c r="FI60" t="s">
-        <v>916</v>
+        <v>935</v>
       </c>
       <c r="FJ60" t="s">
-        <v>921</v>
+        <v>938</v>
       </c>
       <c r="FK60" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
       <c r="FL60" t="s">
-        <v>924</v>
+        <v>943</v>
       </c>
       <c r="FM60" t="s">
-        <v>930</v>
+        <v>944</v>
       </c>
       <c r="FN60" t="s">
-        <v>935</v>
+        <v>948</v>
       </c>
       <c r="FO60" t="s">
-        <v>938</v>
+        <v>949</v>
       </c>
       <c r="FP60" t="s">
-        <v>940</v>
+        <v>952</v>
       </c>
       <c r="FQ60" t="s">
-        <v>943</v>
+        <v>954</v>
       </c>
       <c r="FR60" t="s">
-        <v>948</v>
+        <v>955</v>
       </c>
       <c r="FS60" t="s">
-        <v>949</v>
+        <v>961</v>
       </c>
       <c r="FT60" t="s">
-        <v>952</v>
+        <v>962</v>
       </c>
       <c r="FU60" t="s">
-        <v>954</v>
+        <v>965</v>
       </c>
       <c r="FV60" t="s">
-        <v>955</v>
+        <v>968</v>
       </c>
       <c r="FW60" t="s">
-        <v>957</v>
+        <v>971</v>
       </c>
       <c r="FX60" t="s">
-        <v>962</v>
+        <v>974</v>
       </c>
       <c r="FY60" t="s">
-        <v>965</v>
+        <v>975</v>
       </c>
       <c r="FZ60" t="s">
-        <v>968</v>
+        <v>976</v>
       </c>
       <c r="GA60" t="s">
-        <v>971</v>
+        <v>981</v>
       </c>
       <c r="GB60" t="s">
-        <v>974</v>
+        <v>984</v>
       </c>
       <c r="GC60" t="s">
-        <v>975</v>
+        <v>985</v>
       </c>
       <c r="GD60" t="s">
-        <v>976</v>
+        <v>986</v>
       </c>
       <c r="GE60" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
       <c r="GF60" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="GG60" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="GH60" t="s">
-        <v>986</v>
+        <v>993</v>
       </c>
       <c r="GI60" t="s">
-        <v>987</v>
+        <v>994</v>
       </c>
       <c r="GJ60" t="s">
-        <v>988</v>
+        <v>997</v>
       </c>
       <c r="GK60" t="s">
-        <v>991</v>
+        <v>999</v>
       </c>
       <c r="GL60" t="s">
-        <v>993</v>
+        <v>1000</v>
       </c>
       <c r="GM60" t="s">
-        <v>994</v>
+        <v>1001</v>
       </c>
       <c r="GN60" t="s">
-        <v>997</v>
+        <v>1002</v>
       </c>
       <c r="GO60" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="GP60" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="GQ60" t="s">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="GR60" t="s">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="GS60" t="s">
-        <v>1003</v>
+        <v>1010</v>
       </c>
       <c r="GT60" t="s">
-        <v>1004</v>
+        <v>1011</v>
       </c>
       <c r="GU60" t="s">
-        <v>1006</v>
+        <v>1013</v>
       </c>
       <c r="GV60" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="GW60" t="s">
-        <v>1010</v>
+        <v>1018</v>
       </c>
       <c r="GX60" t="s">
-        <v>1011</v>
+        <v>1021</v>
       </c>
       <c r="GY60" t="s">
-        <v>1013</v>
+        <v>1022</v>
       </c>
       <c r="GZ60" t="s">
-        <v>1014</v>
+        <v>1026</v>
       </c>
       <c r="HA60" t="s">
-        <v>1018</v>
+        <v>1028</v>
       </c>
       <c r="HB60" t="s">
-        <v>1021</v>
+        <v>1032</v>
       </c>
       <c r="HC60" t="s">
-        <v>1022</v>
+        <v>1034</v>
       </c>
       <c r="HD60" t="s">
-        <v>1026</v>
+        <v>1038</v>
       </c>
       <c r="HE60" t="s">
-        <v>1028</v>
+        <v>1039</v>
       </c>
       <c r="HF60" t="s">
-        <v>1031</v>
+        <v>1040</v>
       </c>
       <c r="HG60" t="s">
-        <v>1032</v>
+        <v>1041</v>
       </c>
       <c r="HH60" t="s">
-        <v>1034</v>
+        <v>1042</v>
       </c>
       <c r="HI60" t="s">
-        <v>1038</v>
+        <v>1048</v>
       </c>
       <c r="HJ60" t="s">
-        <v>1039</v>
+        <v>1050</v>
       </c>
       <c r="HK60" t="s">
-        <v>1040</v>
+        <v>1051</v>
       </c>
       <c r="HL60" t="s">
-        <v>1041</v>
+        <v>1052</v>
       </c>
       <c r="HM60" t="s">
-        <v>1042</v>
+        <v>1053</v>
       </c>
       <c r="HN60" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="HO60" t="s">
-        <v>1050</v>
+        <v>1056</v>
       </c>
       <c r="HP60" t="s">
-        <v>1051</v>
+        <v>1057</v>
       </c>
       <c r="HQ60" t="s">
-        <v>1052</v>
+        <v>1058</v>
       </c>
       <c r="HR60" t="s">
-        <v>1053</v>
+        <v>1060</v>
       </c>
       <c r="HS60" t="s">
-        <v>1054</v>
+        <v>1065</v>
       </c>
       <c r="HT60" t="s">
-        <v>1056</v>
+        <v>1066</v>
       </c>
       <c r="HU60" t="s">
-        <v>1057</v>
+        <v>1067</v>
       </c>
       <c r="HV60" t="s">
-        <v>1058</v>
+        <v>1068</v>
       </c>
       <c r="HW60" t="s">
-        <v>1059</v>
+        <v>1069</v>
       </c>
       <c r="HX60" t="s">
-        <v>1060</v>
+        <v>1071</v>
       </c>
       <c r="HY60" t="s">
-        <v>1065</v>
+        <v>1072</v>
       </c>
       <c r="HZ60" t="s">
-        <v>1066</v>
+        <v>1073</v>
       </c>
       <c r="IA60" t="s">
-        <v>1067</v>
+        <v>1075</v>
       </c>
       <c r="IB60" t="s">
-        <v>1068</v>
+        <v>1079</v>
       </c>
       <c r="IC60" t="s">
-        <v>1069</v>
+        <v>1080</v>
       </c>
       <c r="ID60" t="s">
-        <v>1071</v>
+        <v>1081</v>
       </c>
       <c r="IE60" t="s">
-        <v>1072</v>
+        <v>1083</v>
       </c>
       <c r="IF60" t="s">
-        <v>1073</v>
+        <v>1084</v>
       </c>
       <c r="IG60" t="s">
-        <v>1075</v>
+        <v>1088</v>
       </c>
       <c r="IH60" t="s">
-        <v>1078</v>
+        <v>1089</v>
       </c>
       <c r="II60" t="s">
-        <v>1079</v>
+        <v>1091</v>
       </c>
       <c r="IJ60" t="s">
-        <v>1080</v>
+        <v>1093</v>
       </c>
       <c r="IK60" t="s">
-        <v>1081</v>
+        <v>1094</v>
       </c>
       <c r="IL60" t="s">
-        <v>1083</v>
+        <v>1098</v>
       </c>
       <c r="IM60" t="s">
-        <v>1084</v>
+        <v>1099</v>
       </c>
       <c r="IN60" t="s">
-        <v>1088</v>
+        <v>1100</v>
       </c>
       <c r="IO60" t="s">
-        <v>1089</v>
+        <v>1102</v>
       </c>
       <c r="IP60" t="s">
-        <v>1091</v>
+        <v>1103</v>
       </c>
       <c r="IQ60" t="s">
-        <v>1093</v>
+        <v>1104</v>
       </c>
       <c r="IR60" t="s">
-        <v>1094</v>
+        <v>1105</v>
       </c>
       <c r="IS60" t="s">
-        <v>1098</v>
+        <v>1106</v>
       </c>
       <c r="IT60" t="s">
-        <v>1099</v>
+        <v>1109</v>
       </c>
       <c r="IU60" t="s">
-        <v>1100</v>
+        <v>1110</v>
       </c>
       <c r="IV60" t="s">
-        <v>1102</v>
+        <v>1111</v>
       </c>
       <c r="IW60" t="s">
-        <v>1103</v>
+        <v>1113</v>
       </c>
       <c r="IX60" t="s">
-        <v>1104</v>
+        <v>1114</v>
       </c>
       <c r="IY60" t="s">
-        <v>1105</v>
+        <v>1115</v>
       </c>
       <c r="IZ60" t="s">
-        <v>1106</v>
+        <v>1116</v>
       </c>
       <c r="JA60" t="s">
-        <v>1109</v>
+        <v>1117</v>
       </c>
       <c r="JB60" t="s">
-        <v>1110</v>
+        <v>1120</v>
       </c>
       <c r="JC60" t="s">
-        <v>1111</v>
+        <v>1121</v>
       </c>
       <c r="JD60" t="s">
-        <v>1112</v>
+        <v>1122</v>
       </c>
       <c r="JE60" t="s">
-        <v>1113</v>
+        <v>1123</v>
       </c>
       <c r="JF60" t="s">
-        <v>1114</v>
+        <v>1124</v>
       </c>
       <c r="JG60" t="s">
-        <v>1115</v>
+        <v>1125</v>
       </c>
       <c r="JH60" t="s">
-        <v>1116</v>
+        <v>1126</v>
       </c>
       <c r="JI60" t="s">
-        <v>1117</v>
+        <v>1127</v>
       </c>
       <c r="JJ60" t="s">
-        <v>1118</v>
+        <v>1128</v>
       </c>
       <c r="JK60" t="s">
-        <v>1120</v>
+        <v>1129</v>
       </c>
       <c r="JL60" t="s">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="JM60" t="s">
-        <v>1122</v>
+        <v>1134</v>
       </c>
       <c r="JN60" t="s">
-        <v>1123</v>
+        <v>1135</v>
       </c>
       <c r="JO60" t="s">
-        <v>1124</v>
+        <v>1136</v>
       </c>
       <c r="JP60" t="s">
-        <v>1125</v>
+        <v>1137</v>
       </c>
       <c r="JQ60" t="s">
-        <v>1126</v>
+        <v>1138</v>
       </c>
       <c r="JR60" t="s">
-        <v>1127</v>
+        <v>1139</v>
       </c>
       <c r="JS60" t="s">
-        <v>1128</v>
+        <v>1140</v>
       </c>
       <c r="JT60" t="s">
-        <v>1129</v>
+        <v>1141</v>
       </c>
       <c r="JU60" t="s">
-        <v>1130</v>
+        <v>1142</v>
       </c>
       <c r="JV60" t="s">
-        <v>1134</v>
+        <v>1143</v>
       </c>
       <c r="JW60" t="s">
-        <v>1135</v>
+        <v>1144</v>
       </c>
       <c r="JX60" t="s">
-        <v>1136</v>
+        <v>1145</v>
       </c>
       <c r="JY60" t="s">
-        <v>1137</v>
+        <v>1146</v>
       </c>
       <c r="JZ60" t="s">
-        <v>1138</v>
+        <v>1147</v>
       </c>
       <c r="KA60" t="s">
-        <v>1139</v>
+        <v>1148</v>
       </c>
       <c r="KB60" t="s">
-        <v>1140</v>
+        <v>1150</v>
       </c>
       <c r="KC60" t="s">
-        <v>1141</v>
+        <v>1151</v>
       </c>
       <c r="KD60" t="s">
-        <v>1142</v>
+        <v>1152</v>
       </c>
       <c r="KE60" t="s">
-        <v>1143</v>
+        <v>1153</v>
       </c>
       <c r="KF60" t="s">
-        <v>1144</v>
+        <v>1158</v>
       </c>
       <c r="KG60" t="s">
-        <v>1145</v>
+        <v>1159</v>
       </c>
       <c r="KH60" t="s">
-        <v>1146</v>
+        <v>1160</v>
       </c>
       <c r="KI60" t="s">
-        <v>1147</v>
+        <v>1161</v>
       </c>
       <c r="KJ60" t="s">
-        <v>1148</v>
+        <v>1162</v>
       </c>
       <c r="KK60" t="s">
-        <v>1149</v>
+        <v>1163</v>
       </c>
       <c r="KL60" t="s">
-        <v>1150</v>
+        <v>1164</v>
       </c>
       <c r="KM60" t="s">
-        <v>1151</v>
+        <v>1165</v>
       </c>
       <c r="KN60" t="s">
-        <v>1152</v>
+        <v>1166</v>
       </c>
       <c r="KO60" t="s">
-        <v>1153</v>
+        <v>1167</v>
       </c>
     </row>
   </sheetData>

--- a/timeex.xlsx
+++ b/timeex.xlsx
@@ -3523,7 +3523,7 @@
     <t>2023-03-31 00:00:00</t>
   </si>
   <si>
-    <t>2023-04-30 00:00:00</t>
+    <t>2023-04-28 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -3536,7 +3536,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3546,13 +3546,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -4007,46 +4000,49 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4058,103 +4054,101 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4504,7 +4498,7 @@
   <dimension ref="A1:KO62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -59715,7 +59709,7 @@
       </c>
     </row>
     <row r="62" spans="1:301">
-      <c r="A62" t="s">
+      <c r="A62" s="2" t="s">
         <v>1169</v>
       </c>
       <c r="B62" t="s">

--- a/timeex.xlsx
+++ b/timeex.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18661" uniqueCount="1173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18962" uniqueCount="1174">
   <si>
     <t>0</t>
   </si>
@@ -3523,7 +3523,7 @@
     <t>2023-03-31 00:00:00</t>
   </si>
   <si>
-    <t>2023-06-12 00:00:00</t>
+    <t>2023-06-30 00:00:00</t>
   </si>
   <si>
     <t>000617</t>
@@ -3533,6 +3533,9 @@
   </si>
   <si>
     <t>688223</t>
+  </si>
+  <si>
+    <t>2023-09-28 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -4510,15 +4513,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:KO62"/>
+  <dimension ref="A1:KO63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="JY55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="17.7272727272727" customWidth="1"/>
+    <col min="1" max="1" width="21.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:301">
@@ -60625,6 +60628,911 @@
         <v>1171</v>
       </c>
       <c r="KO62" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:301">
+      <c r="A63" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B63" t="s">
+        <v>301</v>
+      </c>
+      <c r="C63" t="s">
+        <v>302</v>
+      </c>
+      <c r="D63" t="s">
+        <v>314</v>
+      </c>
+      <c r="E63" t="s">
+        <v>315</v>
+      </c>
+      <c r="F63" t="s">
+        <v>623</v>
+      </c>
+      <c r="G63" t="s">
+        <v>318</v>
+      </c>
+      <c r="H63" t="s">
+        <v>324</v>
+      </c>
+      <c r="I63" t="s">
+        <v>335</v>
+      </c>
+      <c r="J63" t="s">
+        <v>338</v>
+      </c>
+      <c r="K63" t="s">
+        <v>342</v>
+      </c>
+      <c r="L63" t="s">
+        <v>345</v>
+      </c>
+      <c r="M63" t="s">
+        <v>625</v>
+      </c>
+      <c r="N63" t="s">
+        <v>1156</v>
+      </c>
+      <c r="O63" t="s">
+        <v>352</v>
+      </c>
+      <c r="P63" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>354</v>
+      </c>
+      <c r="R63" t="s">
+        <v>360</v>
+      </c>
+      <c r="S63" t="s">
+        <v>362</v>
+      </c>
+      <c r="T63" t="s">
+        <v>374</v>
+      </c>
+      <c r="U63" t="s">
+        <v>375</v>
+      </c>
+      <c r="V63" t="s">
+        <v>382</v>
+      </c>
+      <c r="W63" t="s">
+        <v>383</v>
+      </c>
+      <c r="X63" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>388</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>389</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>395</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>396</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>397</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>400</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>402</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>405</v>
+      </c>
+      <c r="AJ63" t="s">
+        <v>408</v>
+      </c>
+      <c r="AK63" t="s">
+        <v>413</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>416</v>
+      </c>
+      <c r="AM63" t="s">
+        <v>422</v>
+      </c>
+      <c r="AN63" t="s">
+        <v>423</v>
+      </c>
+      <c r="AO63" t="s">
+        <v>425</v>
+      </c>
+      <c r="AP63" t="s">
+        <v>438</v>
+      </c>
+      <c r="AQ63" t="s">
+        <v>443</v>
+      </c>
+      <c r="AR63" t="s">
+        <v>449</v>
+      </c>
+      <c r="AS63" t="s">
+        <v>453</v>
+      </c>
+      <c r="AT63" t="s">
+        <v>457</v>
+      </c>
+      <c r="AU63" t="s">
+        <v>467</v>
+      </c>
+      <c r="AV63" t="s">
+        <v>627</v>
+      </c>
+      <c r="AW63" t="s">
+        <v>472</v>
+      </c>
+      <c r="AX63" t="s">
+        <v>477</v>
+      </c>
+      <c r="AY63" t="s">
+        <v>484</v>
+      </c>
+      <c r="AZ63" t="s">
+        <v>1157</v>
+      </c>
+      <c r="BA63" t="s">
+        <v>500</v>
+      </c>
+      <c r="BB63" t="s">
+        <v>501</v>
+      </c>
+      <c r="BC63" t="s">
+        <v>503</v>
+      </c>
+      <c r="BD63" t="s">
+        <v>506</v>
+      </c>
+      <c r="BE63" t="s">
+        <v>513</v>
+      </c>
+      <c r="BF63" t="s">
+        <v>517</v>
+      </c>
+      <c r="BG63" t="s">
+        <v>1170</v>
+      </c>
+      <c r="BH63" t="s">
+        <v>522</v>
+      </c>
+      <c r="BI63" t="s">
+        <v>643</v>
+      </c>
+      <c r="BJ63" t="s">
+        <v>703</v>
+      </c>
+      <c r="BK63" t="s">
+        <v>1133</v>
+      </c>
+      <c r="BL63" t="s">
+        <v>630</v>
+      </c>
+      <c r="BM63" t="s">
+        <v>532</v>
+      </c>
+      <c r="BN63" t="s">
+        <v>533</v>
+      </c>
+      <c r="BO63" t="s">
+        <v>534</v>
+      </c>
+      <c r="BP63" t="s">
+        <v>535</v>
+      </c>
+      <c r="BQ63" t="s">
+        <v>536</v>
+      </c>
+      <c r="BR63" t="s">
+        <v>537</v>
+      </c>
+      <c r="BS63" t="s">
+        <v>540</v>
+      </c>
+      <c r="BT63" t="s">
+        <v>543</v>
+      </c>
+      <c r="BU63" t="s">
+        <v>798</v>
+      </c>
+      <c r="BV63" t="s">
+        <v>548</v>
+      </c>
+      <c r="BW63" t="s">
+        <v>552</v>
+      </c>
+      <c r="BX63" t="s">
+        <v>553</v>
+      </c>
+      <c r="BY63" t="s">
+        <v>554</v>
+      </c>
+      <c r="BZ63" t="s">
+        <v>555</v>
+      </c>
+      <c r="CA63" t="s">
+        <v>557</v>
+      </c>
+      <c r="CB63" t="s">
+        <v>558</v>
+      </c>
+      <c r="CC63" t="s">
+        <v>559</v>
+      </c>
+      <c r="CD63" t="s">
+        <v>562</v>
+      </c>
+      <c r="CE63" t="s">
+        <v>566</v>
+      </c>
+      <c r="CF63" t="s">
+        <v>569</v>
+      </c>
+      <c r="CG63" t="s">
+        <v>574</v>
+      </c>
+      <c r="CH63" t="s">
+        <v>575</v>
+      </c>
+      <c r="CI63" t="s">
+        <v>577</v>
+      </c>
+      <c r="CJ63" t="s">
+        <v>578</v>
+      </c>
+      <c r="CK63" t="s">
+        <v>579</v>
+      </c>
+      <c r="CL63" t="s">
+        <v>585</v>
+      </c>
+      <c r="CM63" t="s">
+        <v>587</v>
+      </c>
+      <c r="CN63" t="s">
+        <v>595</v>
+      </c>
+      <c r="CO63" t="s">
+        <v>597</v>
+      </c>
+      <c r="CP63" t="s">
+        <v>598</v>
+      </c>
+      <c r="CQ63" t="s">
+        <v>599</v>
+      </c>
+      <c r="CR63" t="s">
+        <v>600</v>
+      </c>
+      <c r="CS63" t="s">
+        <v>611</v>
+      </c>
+      <c r="CT63" t="s">
+        <v>615</v>
+      </c>
+      <c r="CU63" t="s">
+        <v>616</v>
+      </c>
+      <c r="CV63" t="s">
+        <v>618</v>
+      </c>
+      <c r="CW63" t="s">
+        <v>620</v>
+      </c>
+      <c r="CX63" t="s">
+        <v>632</v>
+      </c>
+      <c r="CY63" t="s">
+        <v>635</v>
+      </c>
+      <c r="CZ63" t="s">
+        <v>638</v>
+      </c>
+      <c r="DA63" t="s">
+        <v>639</v>
+      </c>
+      <c r="DB63" t="s">
+        <v>653</v>
+      </c>
+      <c r="DC63" t="s">
+        <v>663</v>
+      </c>
+      <c r="DD63" t="s">
+        <v>671</v>
+      </c>
+      <c r="DE63" t="s">
+        <v>681</v>
+      </c>
+      <c r="DF63" t="s">
+        <v>682</v>
+      </c>
+      <c r="DG63" t="s">
+        <v>686</v>
+      </c>
+      <c r="DH63" t="s">
+        <v>688</v>
+      </c>
+      <c r="DI63" t="s">
+        <v>689</v>
+      </c>
+      <c r="DJ63" t="s">
+        <v>693</v>
+      </c>
+      <c r="DK63" t="s">
+        <v>694</v>
+      </c>
+      <c r="DL63" t="s">
+        <v>695</v>
+      </c>
+      <c r="DM63" t="s">
+        <v>697</v>
+      </c>
+      <c r="DN63" t="s">
+        <v>698</v>
+      </c>
+      <c r="DO63" t="s">
+        <v>699</v>
+      </c>
+      <c r="DP63" t="s">
+        <v>700</v>
+      </c>
+      <c r="DQ63" t="s">
+        <v>704</v>
+      </c>
+      <c r="DR63" t="s">
+        <v>710</v>
+      </c>
+      <c r="DS63" t="s">
+        <v>716</v>
+      </c>
+      <c r="DT63" t="s">
+        <v>722</v>
+      </c>
+      <c r="DU63" t="s">
+        <v>732</v>
+      </c>
+      <c r="DV63" t="s">
+        <v>740</v>
+      </c>
+      <c r="DW63" t="s">
+        <v>755</v>
+      </c>
+      <c r="DX63" t="s">
+        <v>762</v>
+      </c>
+      <c r="DY63" t="s">
+        <v>770</v>
+      </c>
+      <c r="DZ63" t="s">
+        <v>774</v>
+      </c>
+      <c r="EA63" t="s">
+        <v>777</v>
+      </c>
+      <c r="EB63" t="s">
+        <v>778</v>
+      </c>
+      <c r="EC63" t="s">
+        <v>779</v>
+      </c>
+      <c r="ED63" t="s">
+        <v>784</v>
+      </c>
+      <c r="EE63" t="s">
+        <v>787</v>
+      </c>
+      <c r="EF63" t="s">
+        <v>792</v>
+      </c>
+      <c r="EG63" t="s">
+        <v>793</v>
+      </c>
+      <c r="EH63" t="s">
+        <v>801</v>
+      </c>
+      <c r="EI63" t="s">
+        <v>804</v>
+      </c>
+      <c r="EJ63" t="s">
+        <v>805</v>
+      </c>
+      <c r="EK63" t="s">
+        <v>806</v>
+      </c>
+      <c r="EL63" t="s">
+        <v>813</v>
+      </c>
+      <c r="EM63" t="s">
+        <v>814</v>
+      </c>
+      <c r="EN63" t="s">
+        <v>824</v>
+      </c>
+      <c r="EO63" t="s">
+        <v>827</v>
+      </c>
+      <c r="EP63" t="s">
+        <v>832</v>
+      </c>
+      <c r="EQ63" t="s">
+        <v>838</v>
+      </c>
+      <c r="ER63" t="s">
+        <v>845</v>
+      </c>
+      <c r="ES63" t="s">
+        <v>851</v>
+      </c>
+      <c r="ET63" t="s">
+        <v>859</v>
+      </c>
+      <c r="EU63" t="s">
+        <v>860</v>
+      </c>
+      <c r="EV63" t="s">
+        <v>862</v>
+      </c>
+      <c r="EW63" t="s">
+        <v>867</v>
+      </c>
+      <c r="EX63" t="s">
+        <v>869</v>
+      </c>
+      <c r="EY63" t="s">
+        <v>872</v>
+      </c>
+      <c r="EZ63" t="s">
+        <v>873</v>
+      </c>
+      <c r="FA63" t="s">
+        <v>886</v>
+      </c>
+      <c r="FB63" t="s">
+        <v>888</v>
+      </c>
+      <c r="FC63" t="s">
+        <v>890</v>
+      </c>
+      <c r="FD63" t="s">
+        <v>895</v>
+      </c>
+      <c r="FE63" t="s">
+        <v>896</v>
+      </c>
+      <c r="FF63" t="s">
+        <v>902</v>
+      </c>
+      <c r="FG63" t="s">
+        <v>904</v>
+      </c>
+      <c r="FH63" t="s">
+        <v>914</v>
+      </c>
+      <c r="FI63" t="s">
+        <v>915</v>
+      </c>
+      <c r="FJ63" t="s">
+        <v>916</v>
+      </c>
+      <c r="FK63" t="s">
+        <v>921</v>
+      </c>
+      <c r="FL63" t="s">
+        <v>922</v>
+      </c>
+      <c r="FM63" t="s">
+        <v>924</v>
+      </c>
+      <c r="FN63" t="s">
+        <v>930</v>
+      </c>
+      <c r="FO63" t="s">
+        <v>935</v>
+      </c>
+      <c r="FP63" t="s">
+        <v>938</v>
+      </c>
+      <c r="FQ63" t="s">
+        <v>943</v>
+      </c>
+      <c r="FR63" t="s">
+        <v>944</v>
+      </c>
+      <c r="FS63" t="s">
+        <v>948</v>
+      </c>
+      <c r="FT63" t="s">
+        <v>949</v>
+      </c>
+      <c r="FU63" t="s">
+        <v>952</v>
+      </c>
+      <c r="FV63" t="s">
+        <v>954</v>
+      </c>
+      <c r="FW63" t="s">
+        <v>961</v>
+      </c>
+      <c r="FX63" t="s">
+        <v>962</v>
+      </c>
+      <c r="FY63" t="s">
+        <v>965</v>
+      </c>
+      <c r="FZ63" t="s">
+        <v>968</v>
+      </c>
+      <c r="GA63" t="s">
+        <v>971</v>
+      </c>
+      <c r="GB63" t="s">
+        <v>974</v>
+      </c>
+      <c r="GC63" t="s">
+        <v>975</v>
+      </c>
+      <c r="GD63" t="s">
+        <v>976</v>
+      </c>
+      <c r="GE63" t="s">
+        <v>981</v>
+      </c>
+      <c r="GF63" t="s">
+        <v>984</v>
+      </c>
+      <c r="GG63" t="s">
+        <v>985</v>
+      </c>
+      <c r="GH63" t="s">
+        <v>986</v>
+      </c>
+      <c r="GI63" t="s">
+        <v>987</v>
+      </c>
+      <c r="GJ63" t="s">
+        <v>988</v>
+      </c>
+      <c r="GK63" t="s">
+        <v>991</v>
+      </c>
+      <c r="GL63" t="s">
+        <v>993</v>
+      </c>
+      <c r="GM63" t="s">
+        <v>994</v>
+      </c>
+      <c r="GN63" t="s">
+        <v>997</v>
+      </c>
+      <c r="GO63" t="s">
+        <v>999</v>
+      </c>
+      <c r="GP63" t="s">
+        <v>1001</v>
+      </c>
+      <c r="GQ63" t="s">
+        <v>1002</v>
+      </c>
+      <c r="GR63" t="s">
+        <v>1003</v>
+      </c>
+      <c r="GS63" t="s">
+        <v>1004</v>
+      </c>
+      <c r="GT63" t="s">
+        <v>1006</v>
+      </c>
+      <c r="GU63" t="s">
+        <v>1009</v>
+      </c>
+      <c r="GV63" t="s">
+        <v>1010</v>
+      </c>
+      <c r="GW63" t="s">
+        <v>1011</v>
+      </c>
+      <c r="GX63" t="s">
+        <v>1013</v>
+      </c>
+      <c r="GY63" t="s">
+        <v>1014</v>
+      </c>
+      <c r="GZ63" t="s">
+        <v>1018</v>
+      </c>
+      <c r="HA63" t="s">
+        <v>1021</v>
+      </c>
+      <c r="HB63" t="s">
+        <v>1022</v>
+      </c>
+      <c r="HC63" t="s">
+        <v>1026</v>
+      </c>
+      <c r="HD63" t="s">
+        <v>1028</v>
+      </c>
+      <c r="HE63" t="s">
+        <v>1032</v>
+      </c>
+      <c r="HF63" t="s">
+        <v>1034</v>
+      </c>
+      <c r="HG63" t="s">
+        <v>1038</v>
+      </c>
+      <c r="HH63" t="s">
+        <v>1039</v>
+      </c>
+      <c r="HI63" t="s">
+        <v>1040</v>
+      </c>
+      <c r="HJ63" t="s">
+        <v>1041</v>
+      </c>
+      <c r="HK63" t="s">
+        <v>1042</v>
+      </c>
+      <c r="HL63" t="s">
+        <v>1048</v>
+      </c>
+      <c r="HM63" t="s">
+        <v>1050</v>
+      </c>
+      <c r="HN63" t="s">
+        <v>1051</v>
+      </c>
+      <c r="HO63" t="s">
+        <v>1052</v>
+      </c>
+      <c r="HP63" t="s">
+        <v>1053</v>
+      </c>
+      <c r="HQ63" t="s">
+        <v>1054</v>
+      </c>
+      <c r="HR63" t="s">
+        <v>1056</v>
+      </c>
+      <c r="HS63" t="s">
+        <v>1057</v>
+      </c>
+      <c r="HT63" t="s">
+        <v>1058</v>
+      </c>
+      <c r="HU63" t="s">
+        <v>1060</v>
+      </c>
+      <c r="HV63" t="s">
+        <v>1065</v>
+      </c>
+      <c r="HW63" t="s">
+        <v>1067</v>
+      </c>
+      <c r="HX63" t="s">
+        <v>1068</v>
+      </c>
+      <c r="HY63" t="s">
+        <v>1071</v>
+      </c>
+      <c r="HZ63" t="s">
+        <v>1072</v>
+      </c>
+      <c r="IA63" t="s">
+        <v>1073</v>
+      </c>
+      <c r="IB63" t="s">
+        <v>1075</v>
+      </c>
+      <c r="IC63" t="s">
+        <v>1079</v>
+      </c>
+      <c r="ID63" t="s">
+        <v>1080</v>
+      </c>
+      <c r="IE63" t="s">
+        <v>1081</v>
+      </c>
+      <c r="IF63" t="s">
+        <v>1083</v>
+      </c>
+      <c r="IG63" t="s">
+        <v>1084</v>
+      </c>
+      <c r="IH63" t="s">
+        <v>1088</v>
+      </c>
+      <c r="II63" t="s">
+        <v>1089</v>
+      </c>
+      <c r="IJ63" t="s">
+        <v>1093</v>
+      </c>
+      <c r="IK63" t="s">
+        <v>1094</v>
+      </c>
+      <c r="IL63" t="s">
+        <v>1098</v>
+      </c>
+      <c r="IM63" t="s">
+        <v>1099</v>
+      </c>
+      <c r="IN63" t="s">
+        <v>1102</v>
+      </c>
+      <c r="IO63" t="s">
+        <v>1103</v>
+      </c>
+      <c r="IP63" t="s">
+        <v>1105</v>
+      </c>
+      <c r="IQ63" t="s">
+        <v>1106</v>
+      </c>
+      <c r="IR63" t="s">
+        <v>1109</v>
+      </c>
+      <c r="IS63" t="s">
+        <v>1110</v>
+      </c>
+      <c r="IT63" t="s">
+        <v>1111</v>
+      </c>
+      <c r="IU63" t="s">
+        <v>1113</v>
+      </c>
+      <c r="IV63" t="s">
+        <v>1114</v>
+      </c>
+      <c r="IW63" t="s">
+        <v>1115</v>
+      </c>
+      <c r="IX63" t="s">
+        <v>1116</v>
+      </c>
+      <c r="IY63" t="s">
+        <v>1117</v>
+      </c>
+      <c r="IZ63" t="s">
+        <v>1120</v>
+      </c>
+      <c r="JA63" t="s">
+        <v>1121</v>
+      </c>
+      <c r="JB63" t="s">
+        <v>1122</v>
+      </c>
+      <c r="JC63" t="s">
+        <v>1123</v>
+      </c>
+      <c r="JD63" t="s">
+        <v>1124</v>
+      </c>
+      <c r="JE63" t="s">
+        <v>1125</v>
+      </c>
+      <c r="JF63" t="s">
+        <v>1126</v>
+      </c>
+      <c r="JG63" t="s">
+        <v>1127</v>
+      </c>
+      <c r="JH63" t="s">
+        <v>1128</v>
+      </c>
+      <c r="JI63" t="s">
+        <v>1129</v>
+      </c>
+      <c r="JJ63" t="s">
+        <v>1130</v>
+      </c>
+      <c r="JK63" t="s">
+        <v>1134</v>
+      </c>
+      <c r="JL63" t="s">
+        <v>1135</v>
+      </c>
+      <c r="JM63" t="s">
+        <v>1136</v>
+      </c>
+      <c r="JN63" t="s">
+        <v>1137</v>
+      </c>
+      <c r="JO63" t="s">
+        <v>1138</v>
+      </c>
+      <c r="JP63" t="s">
+        <v>1139</v>
+      </c>
+      <c r="JQ63" t="s">
+        <v>1140</v>
+      </c>
+      <c r="JR63" t="s">
+        <v>1141</v>
+      </c>
+      <c r="JS63" t="s">
+        <v>1142</v>
+      </c>
+      <c r="JT63" t="s">
+        <v>1143</v>
+      </c>
+      <c r="JU63" t="s">
+        <v>1144</v>
+      </c>
+      <c r="JV63" t="s">
+        <v>1145</v>
+      </c>
+      <c r="JW63" t="s">
+        <v>1146</v>
+      </c>
+      <c r="JX63" t="s">
+        <v>1147</v>
+      </c>
+      <c r="JY63" t="s">
+        <v>1148</v>
+      </c>
+      <c r="JZ63" t="s">
+        <v>1150</v>
+      </c>
+      <c r="KA63" t="s">
+        <v>1151</v>
+      </c>
+      <c r="KB63" t="s">
+        <v>1152</v>
+      </c>
+      <c r="KC63" t="s">
+        <v>1153</v>
+      </c>
+      <c r="KD63" t="s">
+        <v>1158</v>
+      </c>
+      <c r="KE63" t="s">
+        <v>1159</v>
+      </c>
+      <c r="KF63" t="s">
+        <v>1160</v>
+      </c>
+      <c r="KG63" t="s">
+        <v>1161</v>
+      </c>
+      <c r="KH63" t="s">
+        <v>1162</v>
+      </c>
+      <c r="KI63" t="s">
+        <v>1163</v>
+      </c>
+      <c r="KJ63" t="s">
+        <v>1164</v>
+      </c>
+      <c r="KK63" t="s">
+        <v>1165</v>
+      </c>
+      <c r="KL63" t="s">
+        <v>1166</v>
+      </c>
+      <c r="KM63" t="s">
+        <v>1167</v>
+      </c>
+      <c r="KN63" t="s">
+        <v>1171</v>
+      </c>
+      <c r="KO63" t="s">
         <v>1172</v>
       </c>
     </row>

--- a/timeex.xlsx
+++ b/timeex.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18962" uniqueCount="1174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19263" uniqueCount="1175">
   <si>
     <t>0</t>
   </si>
@@ -3535,7 +3535,10 @@
     <t>688223</t>
   </si>
   <si>
-    <t>2023-09-28 00:00:00</t>
+    <t>2023-09-30 00:00:00</t>
+  </si>
+  <si>
+    <t>2023-11-02 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -4513,7 +4516,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:KO63"/>
+  <dimension ref="A1:KO64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61536,6 +61539,911 @@
         <v>1172</v>
       </c>
     </row>
+    <row r="64" spans="1:301">
+      <c r="A64" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B64" t="s">
+        <v>301</v>
+      </c>
+      <c r="C64" t="s">
+        <v>302</v>
+      </c>
+      <c r="D64" t="s">
+        <v>314</v>
+      </c>
+      <c r="E64" t="s">
+        <v>315</v>
+      </c>
+      <c r="F64" t="s">
+        <v>623</v>
+      </c>
+      <c r="G64" t="s">
+        <v>318</v>
+      </c>
+      <c r="H64" t="s">
+        <v>324</v>
+      </c>
+      <c r="I64" t="s">
+        <v>335</v>
+      </c>
+      <c r="J64" t="s">
+        <v>338</v>
+      </c>
+      <c r="K64" t="s">
+        <v>342</v>
+      </c>
+      <c r="L64" t="s">
+        <v>345</v>
+      </c>
+      <c r="M64" t="s">
+        <v>625</v>
+      </c>
+      <c r="N64" t="s">
+        <v>1156</v>
+      </c>
+      <c r="O64" t="s">
+        <v>352</v>
+      </c>
+      <c r="P64" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>354</v>
+      </c>
+      <c r="R64" t="s">
+        <v>360</v>
+      </c>
+      <c r="S64" t="s">
+        <v>362</v>
+      </c>
+      <c r="T64" t="s">
+        <v>374</v>
+      </c>
+      <c r="U64" t="s">
+        <v>375</v>
+      </c>
+      <c r="V64" t="s">
+        <v>382</v>
+      </c>
+      <c r="W64" t="s">
+        <v>383</v>
+      </c>
+      <c r="X64" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>388</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>389</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>395</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>396</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>397</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>400</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>402</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>405</v>
+      </c>
+      <c r="AJ64" t="s">
+        <v>408</v>
+      </c>
+      <c r="AK64" t="s">
+        <v>413</v>
+      </c>
+      <c r="AL64" t="s">
+        <v>416</v>
+      </c>
+      <c r="AM64" t="s">
+        <v>422</v>
+      </c>
+      <c r="AN64" t="s">
+        <v>423</v>
+      </c>
+      <c r="AO64" t="s">
+        <v>425</v>
+      </c>
+      <c r="AP64" t="s">
+        <v>438</v>
+      </c>
+      <c r="AQ64" t="s">
+        <v>443</v>
+      </c>
+      <c r="AR64" t="s">
+        <v>449</v>
+      </c>
+      <c r="AS64" t="s">
+        <v>453</v>
+      </c>
+      <c r="AT64" t="s">
+        <v>457</v>
+      </c>
+      <c r="AU64" t="s">
+        <v>467</v>
+      </c>
+      <c r="AV64" t="s">
+        <v>627</v>
+      </c>
+      <c r="AW64" t="s">
+        <v>472</v>
+      </c>
+      <c r="AX64" t="s">
+        <v>477</v>
+      </c>
+      <c r="AY64" t="s">
+        <v>484</v>
+      </c>
+      <c r="AZ64" t="s">
+        <v>1157</v>
+      </c>
+      <c r="BA64" t="s">
+        <v>500</v>
+      </c>
+      <c r="BB64" t="s">
+        <v>501</v>
+      </c>
+      <c r="BC64" t="s">
+        <v>503</v>
+      </c>
+      <c r="BD64" t="s">
+        <v>506</v>
+      </c>
+      <c r="BE64" t="s">
+        <v>513</v>
+      </c>
+      <c r="BF64" t="s">
+        <v>517</v>
+      </c>
+      <c r="BG64" t="s">
+        <v>1170</v>
+      </c>
+      <c r="BH64" t="s">
+        <v>522</v>
+      </c>
+      <c r="BI64" t="s">
+        <v>643</v>
+      </c>
+      <c r="BJ64" t="s">
+        <v>703</v>
+      </c>
+      <c r="BK64" t="s">
+        <v>1133</v>
+      </c>
+      <c r="BL64" t="s">
+        <v>630</v>
+      </c>
+      <c r="BM64" t="s">
+        <v>532</v>
+      </c>
+      <c r="BN64" t="s">
+        <v>533</v>
+      </c>
+      <c r="BO64" t="s">
+        <v>534</v>
+      </c>
+      <c r="BP64" t="s">
+        <v>535</v>
+      </c>
+      <c r="BQ64" t="s">
+        <v>536</v>
+      </c>
+      <c r="BR64" t="s">
+        <v>537</v>
+      </c>
+      <c r="BS64" t="s">
+        <v>540</v>
+      </c>
+      <c r="BT64" t="s">
+        <v>543</v>
+      </c>
+      <c r="BU64" t="s">
+        <v>798</v>
+      </c>
+      <c r="BV64" t="s">
+        <v>548</v>
+      </c>
+      <c r="BW64" t="s">
+        <v>552</v>
+      </c>
+      <c r="BX64" t="s">
+        <v>553</v>
+      </c>
+      <c r="BY64" t="s">
+        <v>554</v>
+      </c>
+      <c r="BZ64" t="s">
+        <v>555</v>
+      </c>
+      <c r="CA64" t="s">
+        <v>557</v>
+      </c>
+      <c r="CB64" t="s">
+        <v>558</v>
+      </c>
+      <c r="CC64" t="s">
+        <v>559</v>
+      </c>
+      <c r="CD64" t="s">
+        <v>562</v>
+      </c>
+      <c r="CE64" t="s">
+        <v>566</v>
+      </c>
+      <c r="CF64" t="s">
+        <v>569</v>
+      </c>
+      <c r="CG64" t="s">
+        <v>574</v>
+      </c>
+      <c r="CH64" t="s">
+        <v>575</v>
+      </c>
+      <c r="CI64" t="s">
+        <v>577</v>
+      </c>
+      <c r="CJ64" t="s">
+        <v>578</v>
+      </c>
+      <c r="CK64" t="s">
+        <v>579</v>
+      </c>
+      <c r="CL64" t="s">
+        <v>585</v>
+      </c>
+      <c r="CM64" t="s">
+        <v>587</v>
+      </c>
+      <c r="CN64" t="s">
+        <v>595</v>
+      </c>
+      <c r="CO64" t="s">
+        <v>597</v>
+      </c>
+      <c r="CP64" t="s">
+        <v>598</v>
+      </c>
+      <c r="CQ64" t="s">
+        <v>599</v>
+      </c>
+      <c r="CR64" t="s">
+        <v>600</v>
+      </c>
+      <c r="CS64" t="s">
+        <v>611</v>
+      </c>
+      <c r="CT64" t="s">
+        <v>615</v>
+      </c>
+      <c r="CU64" t="s">
+        <v>616</v>
+      </c>
+      <c r="CV64" t="s">
+        <v>618</v>
+      </c>
+      <c r="CW64" t="s">
+        <v>620</v>
+      </c>
+      <c r="CX64" t="s">
+        <v>632</v>
+      </c>
+      <c r="CY64" t="s">
+        <v>635</v>
+      </c>
+      <c r="CZ64" t="s">
+        <v>638</v>
+      </c>
+      <c r="DA64" t="s">
+        <v>639</v>
+      </c>
+      <c r="DB64" t="s">
+        <v>653</v>
+      </c>
+      <c r="DC64" t="s">
+        <v>663</v>
+      </c>
+      <c r="DD64" t="s">
+        <v>671</v>
+      </c>
+      <c r="DE64" t="s">
+        <v>681</v>
+      </c>
+      <c r="DF64" t="s">
+        <v>682</v>
+      </c>
+      <c r="DG64" t="s">
+        <v>686</v>
+      </c>
+      <c r="DH64" t="s">
+        <v>688</v>
+      </c>
+      <c r="DI64" t="s">
+        <v>689</v>
+      </c>
+      <c r="DJ64" t="s">
+        <v>693</v>
+      </c>
+      <c r="DK64" t="s">
+        <v>694</v>
+      </c>
+      <c r="DL64" t="s">
+        <v>695</v>
+      </c>
+      <c r="DM64" t="s">
+        <v>697</v>
+      </c>
+      <c r="DN64" t="s">
+        <v>698</v>
+      </c>
+      <c r="DO64" t="s">
+        <v>699</v>
+      </c>
+      <c r="DP64" t="s">
+        <v>700</v>
+      </c>
+      <c r="DQ64" t="s">
+        <v>704</v>
+      </c>
+      <c r="DR64" t="s">
+        <v>710</v>
+      </c>
+      <c r="DS64" t="s">
+        <v>716</v>
+      </c>
+      <c r="DT64" t="s">
+        <v>722</v>
+      </c>
+      <c r="DU64" t="s">
+        <v>732</v>
+      </c>
+      <c r="DV64" t="s">
+        <v>740</v>
+      </c>
+      <c r="DW64" t="s">
+        <v>755</v>
+      </c>
+      <c r="DX64" t="s">
+        <v>762</v>
+      </c>
+      <c r="DY64" t="s">
+        <v>770</v>
+      </c>
+      <c r="DZ64" t="s">
+        <v>774</v>
+      </c>
+      <c r="EA64" t="s">
+        <v>777</v>
+      </c>
+      <c r="EB64" t="s">
+        <v>778</v>
+      </c>
+      <c r="EC64" t="s">
+        <v>779</v>
+      </c>
+      <c r="ED64" t="s">
+        <v>784</v>
+      </c>
+      <c r="EE64" t="s">
+        <v>787</v>
+      </c>
+      <c r="EF64" t="s">
+        <v>792</v>
+      </c>
+      <c r="EG64" t="s">
+        <v>793</v>
+      </c>
+      <c r="EH64" t="s">
+        <v>801</v>
+      </c>
+      <c r="EI64" t="s">
+        <v>804</v>
+      </c>
+      <c r="EJ64" t="s">
+        <v>805</v>
+      </c>
+      <c r="EK64" t="s">
+        <v>806</v>
+      </c>
+      <c r="EL64" t="s">
+        <v>813</v>
+      </c>
+      <c r="EM64" t="s">
+        <v>814</v>
+      </c>
+      <c r="EN64" t="s">
+        <v>824</v>
+      </c>
+      <c r="EO64" t="s">
+        <v>827</v>
+      </c>
+      <c r="EP64" t="s">
+        <v>832</v>
+      </c>
+      <c r="EQ64" t="s">
+        <v>838</v>
+      </c>
+      <c r="ER64" t="s">
+        <v>845</v>
+      </c>
+      <c r="ES64" t="s">
+        <v>851</v>
+      </c>
+      <c r="ET64" t="s">
+        <v>859</v>
+      </c>
+      <c r="EU64" t="s">
+        <v>860</v>
+      </c>
+      <c r="EV64" t="s">
+        <v>862</v>
+      </c>
+      <c r="EW64" t="s">
+        <v>867</v>
+      </c>
+      <c r="EX64" t="s">
+        <v>869</v>
+      </c>
+      <c r="EY64" t="s">
+        <v>872</v>
+      </c>
+      <c r="EZ64" t="s">
+        <v>873</v>
+      </c>
+      <c r="FA64" t="s">
+        <v>886</v>
+      </c>
+      <c r="FB64" t="s">
+        <v>888</v>
+      </c>
+      <c r="FC64" t="s">
+        <v>890</v>
+      </c>
+      <c r="FD64" t="s">
+        <v>895</v>
+      </c>
+      <c r="FE64" t="s">
+        <v>896</v>
+      </c>
+      <c r="FF64" t="s">
+        <v>902</v>
+      </c>
+      <c r="FG64" t="s">
+        <v>904</v>
+      </c>
+      <c r="FH64" t="s">
+        <v>914</v>
+      </c>
+      <c r="FI64" t="s">
+        <v>915</v>
+      </c>
+      <c r="FJ64" t="s">
+        <v>916</v>
+      </c>
+      <c r="FK64" t="s">
+        <v>921</v>
+      </c>
+      <c r="FL64" t="s">
+        <v>922</v>
+      </c>
+      <c r="FM64" t="s">
+        <v>924</v>
+      </c>
+      <c r="FN64" t="s">
+        <v>930</v>
+      </c>
+      <c r="FO64" t="s">
+        <v>935</v>
+      </c>
+      <c r="FP64" t="s">
+        <v>938</v>
+      </c>
+      <c r="FQ64" t="s">
+        <v>943</v>
+      </c>
+      <c r="FR64" t="s">
+        <v>944</v>
+      </c>
+      <c r="FS64" t="s">
+        <v>948</v>
+      </c>
+      <c r="FT64" t="s">
+        <v>949</v>
+      </c>
+      <c r="FU64" t="s">
+        <v>952</v>
+      </c>
+      <c r="FV64" t="s">
+        <v>954</v>
+      </c>
+      <c r="FW64" t="s">
+        <v>961</v>
+      </c>
+      <c r="FX64" t="s">
+        <v>962</v>
+      </c>
+      <c r="FY64" t="s">
+        <v>965</v>
+      </c>
+      <c r="FZ64" t="s">
+        <v>968</v>
+      </c>
+      <c r="GA64" t="s">
+        <v>971</v>
+      </c>
+      <c r="GB64" t="s">
+        <v>974</v>
+      </c>
+      <c r="GC64" t="s">
+        <v>975</v>
+      </c>
+      <c r="GD64" t="s">
+        <v>976</v>
+      </c>
+      <c r="GE64" t="s">
+        <v>981</v>
+      </c>
+      <c r="GF64" t="s">
+        <v>984</v>
+      </c>
+      <c r="GG64" t="s">
+        <v>985</v>
+      </c>
+      <c r="GH64" t="s">
+        <v>986</v>
+      </c>
+      <c r="GI64" t="s">
+        <v>987</v>
+      </c>
+      <c r="GJ64" t="s">
+        <v>988</v>
+      </c>
+      <c r="GK64" t="s">
+        <v>991</v>
+      </c>
+      <c r="GL64" t="s">
+        <v>993</v>
+      </c>
+      <c r="GM64" t="s">
+        <v>994</v>
+      </c>
+      <c r="GN64" t="s">
+        <v>997</v>
+      </c>
+      <c r="GO64" t="s">
+        <v>999</v>
+      </c>
+      <c r="GP64" t="s">
+        <v>1001</v>
+      </c>
+      <c r="GQ64" t="s">
+        <v>1002</v>
+      </c>
+      <c r="GR64" t="s">
+        <v>1003</v>
+      </c>
+      <c r="GS64" t="s">
+        <v>1004</v>
+      </c>
+      <c r="GT64" t="s">
+        <v>1006</v>
+      </c>
+      <c r="GU64" t="s">
+        <v>1009</v>
+      </c>
+      <c r="GV64" t="s">
+        <v>1010</v>
+      </c>
+      <c r="GW64" t="s">
+        <v>1011</v>
+      </c>
+      <c r="GX64" t="s">
+        <v>1013</v>
+      </c>
+      <c r="GY64" t="s">
+        <v>1014</v>
+      </c>
+      <c r="GZ64" t="s">
+        <v>1018</v>
+      </c>
+      <c r="HA64" t="s">
+        <v>1021</v>
+      </c>
+      <c r="HB64" t="s">
+        <v>1022</v>
+      </c>
+      <c r="HC64" t="s">
+        <v>1026</v>
+      </c>
+      <c r="HD64" t="s">
+        <v>1028</v>
+      </c>
+      <c r="HE64" t="s">
+        <v>1032</v>
+      </c>
+      <c r="HF64" t="s">
+        <v>1034</v>
+      </c>
+      <c r="HG64" t="s">
+        <v>1038</v>
+      </c>
+      <c r="HH64" t="s">
+        <v>1039</v>
+      </c>
+      <c r="HI64" t="s">
+        <v>1040</v>
+      </c>
+      <c r="HJ64" t="s">
+        <v>1041</v>
+      </c>
+      <c r="HK64" t="s">
+        <v>1042</v>
+      </c>
+      <c r="HL64" t="s">
+        <v>1048</v>
+      </c>
+      <c r="HM64" t="s">
+        <v>1050</v>
+      </c>
+      <c r="HN64" t="s">
+        <v>1051</v>
+      </c>
+      <c r="HO64" t="s">
+        <v>1052</v>
+      </c>
+      <c r="HP64" t="s">
+        <v>1053</v>
+      </c>
+      <c r="HQ64" t="s">
+        <v>1054</v>
+      </c>
+      <c r="HR64" t="s">
+        <v>1056</v>
+      </c>
+      <c r="HS64" t="s">
+        <v>1057</v>
+      </c>
+      <c r="HT64" t="s">
+        <v>1058</v>
+      </c>
+      <c r="HU64" t="s">
+        <v>1060</v>
+      </c>
+      <c r="HV64" t="s">
+        <v>1065</v>
+      </c>
+      <c r="HW64" t="s">
+        <v>1067</v>
+      </c>
+      <c r="HX64" t="s">
+        <v>1068</v>
+      </c>
+      <c r="HY64" t="s">
+        <v>1071</v>
+      </c>
+      <c r="HZ64" t="s">
+        <v>1072</v>
+      </c>
+      <c r="IA64" t="s">
+        <v>1073</v>
+      </c>
+      <c r="IB64" t="s">
+        <v>1075</v>
+      </c>
+      <c r="IC64" t="s">
+        <v>1079</v>
+      </c>
+      <c r="ID64" t="s">
+        <v>1080</v>
+      </c>
+      <c r="IE64" t="s">
+        <v>1081</v>
+      </c>
+      <c r="IF64" t="s">
+        <v>1083</v>
+      </c>
+      <c r="IG64" t="s">
+        <v>1084</v>
+      </c>
+      <c r="IH64" t="s">
+        <v>1088</v>
+      </c>
+      <c r="II64" t="s">
+        <v>1089</v>
+      </c>
+      <c r="IJ64" t="s">
+        <v>1093</v>
+      </c>
+      <c r="IK64" t="s">
+        <v>1094</v>
+      </c>
+      <c r="IL64" t="s">
+        <v>1098</v>
+      </c>
+      <c r="IM64" t="s">
+        <v>1099</v>
+      </c>
+      <c r="IN64" t="s">
+        <v>1102</v>
+      </c>
+      <c r="IO64" t="s">
+        <v>1103</v>
+      </c>
+      <c r="IP64" t="s">
+        <v>1105</v>
+      </c>
+      <c r="IQ64" t="s">
+        <v>1106</v>
+      </c>
+      <c r="IR64" t="s">
+        <v>1109</v>
+      </c>
+      <c r="IS64" t="s">
+        <v>1110</v>
+      </c>
+      <c r="IT64" t="s">
+        <v>1111</v>
+      </c>
+      <c r="IU64" t="s">
+        <v>1113</v>
+      </c>
+      <c r="IV64" t="s">
+        <v>1114</v>
+      </c>
+      <c r="IW64" t="s">
+        <v>1115</v>
+      </c>
+      <c r="IX64" t="s">
+        <v>1116</v>
+      </c>
+      <c r="IY64" t="s">
+        <v>1117</v>
+      </c>
+      <c r="IZ64" t="s">
+        <v>1120</v>
+      </c>
+      <c r="JA64" t="s">
+        <v>1121</v>
+      </c>
+      <c r="JB64" t="s">
+        <v>1122</v>
+      </c>
+      <c r="JC64" t="s">
+        <v>1123</v>
+      </c>
+      <c r="JD64" t="s">
+        <v>1124</v>
+      </c>
+      <c r="JE64" t="s">
+        <v>1125</v>
+      </c>
+      <c r="JF64" t="s">
+        <v>1126</v>
+      </c>
+      <c r="JG64" t="s">
+        <v>1127</v>
+      </c>
+      <c r="JH64" t="s">
+        <v>1128</v>
+      </c>
+      <c r="JI64" t="s">
+        <v>1129</v>
+      </c>
+      <c r="JJ64" t="s">
+        <v>1130</v>
+      </c>
+      <c r="JK64" t="s">
+        <v>1134</v>
+      </c>
+      <c r="JL64" t="s">
+        <v>1135</v>
+      </c>
+      <c r="JM64" t="s">
+        <v>1136</v>
+      </c>
+      <c r="JN64" t="s">
+        <v>1137</v>
+      </c>
+      <c r="JO64" t="s">
+        <v>1138</v>
+      </c>
+      <c r="JP64" t="s">
+        <v>1139</v>
+      </c>
+      <c r="JQ64" t="s">
+        <v>1140</v>
+      </c>
+      <c r="JR64" t="s">
+        <v>1141</v>
+      </c>
+      <c r="JS64" t="s">
+        <v>1142</v>
+      </c>
+      <c r="JT64" t="s">
+        <v>1143</v>
+      </c>
+      <c r="JU64" t="s">
+        <v>1144</v>
+      </c>
+      <c r="JV64" t="s">
+        <v>1145</v>
+      </c>
+      <c r="JW64" t="s">
+        <v>1146</v>
+      </c>
+      <c r="JX64" t="s">
+        <v>1147</v>
+      </c>
+      <c r="JY64" t="s">
+        <v>1148</v>
+      </c>
+      <c r="JZ64" t="s">
+        <v>1150</v>
+      </c>
+      <c r="KA64" t="s">
+        <v>1151</v>
+      </c>
+      <c r="KB64" t="s">
+        <v>1152</v>
+      </c>
+      <c r="KC64" t="s">
+        <v>1153</v>
+      </c>
+      <c r="KD64" t="s">
+        <v>1158</v>
+      </c>
+      <c r="KE64" t="s">
+        <v>1159</v>
+      </c>
+      <c r="KF64" t="s">
+        <v>1160</v>
+      </c>
+      <c r="KG64" t="s">
+        <v>1161</v>
+      </c>
+      <c r="KH64" t="s">
+        <v>1162</v>
+      </c>
+      <c r="KI64" t="s">
+        <v>1163</v>
+      </c>
+      <c r="KJ64" t="s">
+        <v>1164</v>
+      </c>
+      <c r="KK64" t="s">
+        <v>1165</v>
+      </c>
+      <c r="KL64" t="s">
+        <v>1166</v>
+      </c>
+      <c r="KM64" t="s">
+        <v>1167</v>
+      </c>
+      <c r="KN64" t="s">
+        <v>1171</v>
+      </c>
+      <c r="KO64" t="s">
+        <v>1172</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/timeex.xlsx
+++ b/timeex.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19263" uniqueCount="1175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19263" uniqueCount="1183">
   <si>
     <t>0</t>
   </si>
@@ -3538,7 +3538,31 @@
     <t>2023-09-30 00:00:00</t>
   </si>
   <si>
-    <t>2023-11-02 00:00:00</t>
+    <t>2023-12-11 00:00:00</t>
+  </si>
+  <si>
+    <t>300308</t>
+  </si>
+  <si>
+    <t>301269</t>
+  </si>
+  <si>
+    <t>600515</t>
+  </si>
+  <si>
+    <t>600938</t>
+  </si>
+  <si>
+    <t>601059</t>
+  </si>
+  <si>
+    <t>688041</t>
+  </si>
+  <si>
+    <t>688256</t>
+  </si>
+  <si>
+    <t>688271</t>
   </si>
 </sst>
 </file>
@@ -4518,7 +4542,7 @@
   <sheetPr/>
   <dimension ref="A1:KO64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -61670,31 +61694,31 @@
         <v>443</v>
       </c>
       <c r="AR64" t="s">
+        <v>446</v>
+      </c>
+      <c r="AS64" t="s">
         <v>449</v>
       </c>
-      <c r="AS64" t="s">
+      <c r="AT64" t="s">
         <v>453</v>
       </c>
-      <c r="AT64" t="s">
+      <c r="AU64" t="s">
         <v>457</v>
       </c>
-      <c r="AU64" t="s">
+      <c r="AV64" t="s">
         <v>467</v>
       </c>
-      <c r="AV64" t="s">
+      <c r="AW64" t="s">
         <v>627</v>
       </c>
-      <c r="AW64" t="s">
+      <c r="AX64" t="s">
         <v>472</v>
       </c>
-      <c r="AX64" t="s">
+      <c r="AY64" t="s">
         <v>477</v>
       </c>
-      <c r="AY64" t="s">
+      <c r="AZ64" t="s">
         <v>484</v>
-      </c>
-      <c r="AZ64" t="s">
-        <v>1157</v>
       </c>
       <c r="BA64" t="s">
         <v>500</v>
@@ -61712,148 +61736,148 @@
         <v>513</v>
       </c>
       <c r="BF64" t="s">
-        <v>517</v>
+        <v>1170</v>
       </c>
       <c r="BG64" t="s">
-        <v>1170</v>
+        <v>522</v>
       </c>
       <c r="BH64" t="s">
-        <v>522</v>
+        <v>643</v>
       </c>
       <c r="BI64" t="s">
-        <v>643</v>
+        <v>703</v>
       </c>
       <c r="BJ64" t="s">
-        <v>703</v>
+        <v>1133</v>
       </c>
       <c r="BK64" t="s">
-        <v>1133</v>
+        <v>630</v>
       </c>
       <c r="BL64" t="s">
-        <v>630</v>
+        <v>532</v>
       </c>
       <c r="BM64" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="BN64" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="BO64" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="BP64" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="BQ64" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="BR64" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="BS64" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="BT64" t="s">
-        <v>543</v>
+        <v>798</v>
       </c>
       <c r="BU64" t="s">
-        <v>798</v>
+        <v>548</v>
       </c>
       <c r="BV64" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="BW64" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="BX64" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="BY64" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="BZ64" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="CA64" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="CB64" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="CC64" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="CD64" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="CE64" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="CF64" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="CG64" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CH64" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="CI64" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="CJ64" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="CK64" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="CL64" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="CM64" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="CN64" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="CO64" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="CP64" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="CQ64" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="CR64" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="CS64" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="CT64" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="CU64" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="CV64" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="CW64" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="CX64" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="CY64" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="CZ64" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="DA64" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="DB64" t="s">
         <v>653</v>
@@ -61922,217 +61946,217 @@
         <v>755</v>
       </c>
       <c r="DX64" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="DY64" t="s">
+        <v>759</v>
+      </c>
+      <c r="DZ64" t="s">
         <v>770</v>
       </c>
-      <c r="DZ64" t="s">
+      <c r="EA64" t="s">
         <v>774</v>
       </c>
-      <c r="EA64" t="s">
+      <c r="EB64" t="s">
         <v>777</v>
       </c>
-      <c r="EB64" t="s">
+      <c r="EC64" t="s">
         <v>778</v>
       </c>
-      <c r="EC64" t="s">
+      <c r="ED64" t="s">
         <v>779</v>
       </c>
-      <c r="ED64" t="s">
+      <c r="EE64" t="s">
         <v>784</v>
       </c>
-      <c r="EE64" t="s">
+      <c r="EF64" t="s">
         <v>787</v>
       </c>
-      <c r="EF64" t="s">
+      <c r="EG64" t="s">
         <v>792</v>
       </c>
-      <c r="EG64" t="s">
+      <c r="EH64" t="s">
         <v>793</v>
       </c>
-      <c r="EH64" t="s">
+      <c r="EI64" t="s">
         <v>801</v>
       </c>
-      <c r="EI64" t="s">
+      <c r="EJ64" t="s">
         <v>804</v>
       </c>
-      <c r="EJ64" t="s">
+      <c r="EK64" t="s">
         <v>805</v>
       </c>
-      <c r="EK64" t="s">
+      <c r="EL64" t="s">
         <v>806</v>
       </c>
-      <c r="EL64" t="s">
+      <c r="EM64" t="s">
         <v>813</v>
       </c>
-      <c r="EM64" t="s">
+      <c r="EN64" t="s">
         <v>814</v>
       </c>
-      <c r="EN64" t="s">
+      <c r="EO64" t="s">
         <v>824</v>
       </c>
-      <c r="EO64" t="s">
+      <c r="EP64" t="s">
         <v>827</v>
       </c>
-      <c r="EP64" t="s">
+      <c r="EQ64" t="s">
         <v>832</v>
       </c>
-      <c r="EQ64" t="s">
+      <c r="ER64" t="s">
+        <v>833</v>
+      </c>
+      <c r="ES64" t="s">
         <v>838</v>
       </c>
-      <c r="ER64" t="s">
+      <c r="ET64" t="s">
         <v>845</v>
       </c>
-      <c r="ES64" t="s">
+      <c r="EU64" t="s">
         <v>851</v>
       </c>
-      <c r="ET64" t="s">
+      <c r="EV64" t="s">
         <v>859</v>
       </c>
-      <c r="EU64" t="s">
+      <c r="EW64" t="s">
         <v>860</v>
       </c>
-      <c r="EV64" t="s">
+      <c r="EX64" t="s">
         <v>862</v>
       </c>
-      <c r="EW64" t="s">
+      <c r="EY64" t="s">
         <v>867</v>
       </c>
-      <c r="EX64" t="s">
+      <c r="EZ64" t="s">
         <v>869</v>
       </c>
-      <c r="EY64" t="s">
+      <c r="FA64" t="s">
         <v>872</v>
       </c>
-      <c r="EZ64" t="s">
+      <c r="FB64" t="s">
         <v>873</v>
       </c>
-      <c r="FA64" t="s">
+      <c r="FC64" t="s">
         <v>886</v>
       </c>
-      <c r="FB64" t="s">
+      <c r="FD64" t="s">
         <v>888</v>
       </c>
-      <c r="FC64" t="s">
+      <c r="FE64" t="s">
         <v>890</v>
       </c>
-      <c r="FD64" t="s">
+      <c r="FF64" t="s">
         <v>895</v>
       </c>
-      <c r="FE64" t="s">
+      <c r="FG64" t="s">
         <v>896</v>
       </c>
-      <c r="FF64" t="s">
+      <c r="FH64" t="s">
         <v>902</v>
       </c>
-      <c r="FG64" t="s">
+      <c r="FI64" t="s">
         <v>904</v>
       </c>
-      <c r="FH64" t="s">
+      <c r="FJ64" t="s">
         <v>914</v>
       </c>
-      <c r="FI64" t="s">
+      <c r="FK64" t="s">
         <v>915</v>
       </c>
-      <c r="FJ64" t="s">
+      <c r="FL64" t="s">
         <v>916</v>
       </c>
-      <c r="FK64" t="s">
+      <c r="FM64" t="s">
         <v>921</v>
       </c>
-      <c r="FL64" t="s">
+      <c r="FN64" t="s">
         <v>922</v>
       </c>
-      <c r="FM64" t="s">
+      <c r="FO64" t="s">
         <v>924</v>
       </c>
-      <c r="FN64" t="s">
+      <c r="FP64" t="s">
         <v>930</v>
       </c>
-      <c r="FO64" t="s">
+      <c r="FQ64" t="s">
         <v>935</v>
       </c>
-      <c r="FP64" t="s">
+      <c r="FR64" t="s">
         <v>938</v>
       </c>
-      <c r="FQ64" t="s">
+      <c r="FS64" t="s">
         <v>943</v>
       </c>
-      <c r="FR64" t="s">
+      <c r="FT64" t="s">
         <v>944</v>
       </c>
-      <c r="FS64" t="s">
+      <c r="FU64" t="s">
         <v>948</v>
       </c>
-      <c r="FT64" t="s">
+      <c r="FV64" t="s">
         <v>949</v>
       </c>
-      <c r="FU64" t="s">
+      <c r="FW64" t="s">
         <v>952</v>
       </c>
-      <c r="FV64" t="s">
+      <c r="FX64" t="s">
         <v>954</v>
       </c>
-      <c r="FW64" t="s">
-        <v>961</v>
-      </c>
-      <c r="FX64" t="s">
+      <c r="FY64" t="s">
         <v>962</v>
       </c>
-      <c r="FY64" t="s">
+      <c r="FZ64" t="s">
         <v>965</v>
       </c>
-      <c r="FZ64" t="s">
+      <c r="GA64" t="s">
         <v>968</v>
       </c>
-      <c r="GA64" t="s">
+      <c r="GB64" t="s">
         <v>971</v>
       </c>
-      <c r="GB64" t="s">
+      <c r="GC64" t="s">
         <v>974</v>
       </c>
-      <c r="GC64" t="s">
+      <c r="GD64" t="s">
         <v>975</v>
       </c>
-      <c r="GD64" t="s">
+      <c r="GE64" t="s">
         <v>976</v>
       </c>
-      <c r="GE64" t="s">
+      <c r="GF64" t="s">
         <v>981</v>
       </c>
-      <c r="GF64" t="s">
+      <c r="GG64" t="s">
         <v>984</v>
       </c>
-      <c r="GG64" t="s">
+      <c r="GH64" t="s">
         <v>985</v>
       </c>
-      <c r="GH64" t="s">
+      <c r="GI64" t="s">
         <v>986</v>
       </c>
-      <c r="GI64" t="s">
+      <c r="GJ64" t="s">
         <v>987</v>
       </c>
-      <c r="GJ64" t="s">
+      <c r="GK64" t="s">
         <v>988</v>
       </c>
-      <c r="GK64" t="s">
+      <c r="GL64" t="s">
         <v>991</v>
       </c>
-      <c r="GL64" t="s">
+      <c r="GM64" t="s">
         <v>993</v>
       </c>
-      <c r="GM64" t="s">
+      <c r="GN64" t="s">
         <v>994</v>
       </c>
-      <c r="GN64" t="s">
+      <c r="GO64" t="s">
         <v>997</v>
       </c>
-      <c r="GO64" t="s">
+      <c r="GP64" t="s">
         <v>999</v>
-      </c>
-      <c r="GP64" t="s">
-        <v>1001</v>
       </c>
       <c r="GQ64" t="s">
         <v>1002</v>
@@ -62207,241 +62231,241 @@
         <v>1051</v>
       </c>
       <c r="HO64" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="HP64" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="HQ64" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="HR64" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="HS64" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="HT64" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="HU64" t="s">
         <v>1060</v>
       </c>
       <c r="HV64" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="HW64" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="HX64" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="HY64" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="HZ64" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="IA64" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="IB64" t="s">
-        <v>1075</v>
+        <v>1080</v>
       </c>
       <c r="IC64" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="ID64" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="IE64" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="IF64" t="s">
-        <v>1083</v>
+        <v>1088</v>
       </c>
       <c r="IG64" t="s">
-        <v>1084</v>
+        <v>1089</v>
       </c>
       <c r="IH64" t="s">
-        <v>1088</v>
+        <v>1093</v>
       </c>
       <c r="II64" t="s">
-        <v>1089</v>
+        <v>1094</v>
       </c>
       <c r="IJ64" t="s">
-        <v>1093</v>
+        <v>1098</v>
       </c>
       <c r="IK64" t="s">
-        <v>1094</v>
+        <v>1099</v>
       </c>
       <c r="IL64" t="s">
-        <v>1098</v>
+        <v>1102</v>
       </c>
       <c r="IM64" t="s">
-        <v>1099</v>
+        <v>1103</v>
       </c>
       <c r="IN64" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="IO64" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="IP64" t="s">
-        <v>1105</v>
+        <v>1110</v>
       </c>
       <c r="IQ64" t="s">
-        <v>1106</v>
+        <v>1111</v>
       </c>
       <c r="IR64" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
       <c r="IS64" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="IT64" t="s">
-        <v>1111</v>
+        <v>1115</v>
       </c>
       <c r="IU64" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="IV64" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="IW64" t="s">
-        <v>1115</v>
+        <v>1120</v>
       </c>
       <c r="IX64" t="s">
-        <v>1116</v>
+        <v>1121</v>
       </c>
       <c r="IY64" t="s">
-        <v>1117</v>
+        <v>1122</v>
       </c>
       <c r="IZ64" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="JA64" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="JB64" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="JC64" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="JD64" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="JE64" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="JF64" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="JG64" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="JH64" t="s">
-        <v>1128</v>
+        <v>1134</v>
       </c>
       <c r="JI64" t="s">
-        <v>1129</v>
+        <v>1135</v>
       </c>
       <c r="JJ64" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="JK64" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="JL64" t="s">
-        <v>1135</v>
+        <v>1139</v>
       </c>
       <c r="JM64" t="s">
-        <v>1136</v>
+        <v>1140</v>
       </c>
       <c r="JN64" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="JO64" t="s">
-        <v>1138</v>
+        <v>1142</v>
       </c>
       <c r="JP64" t="s">
-        <v>1139</v>
+        <v>1143</v>
       </c>
       <c r="JQ64" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
       <c r="JR64" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
       <c r="JS64" t="s">
-        <v>1142</v>
+        <v>1146</v>
       </c>
       <c r="JT64" t="s">
-        <v>1143</v>
+        <v>1147</v>
       </c>
       <c r="JU64" t="s">
-        <v>1144</v>
+        <v>1148</v>
       </c>
       <c r="JV64" t="s">
-        <v>1145</v>
+        <v>1151</v>
       </c>
       <c r="JW64" t="s">
-        <v>1146</v>
+        <v>1153</v>
       </c>
       <c r="JX64" t="s">
-        <v>1147</v>
+        <v>1158</v>
       </c>
       <c r="JY64" t="s">
-        <v>1148</v>
+        <v>1161</v>
       </c>
       <c r="JZ64" t="s">
-        <v>1150</v>
+        <v>1162</v>
       </c>
       <c r="KA64" t="s">
-        <v>1151</v>
+        <v>1163</v>
       </c>
       <c r="KB64" t="s">
-        <v>1152</v>
+        <v>1164</v>
       </c>
       <c r="KC64" t="s">
-        <v>1153</v>
+        <v>1165</v>
       </c>
       <c r="KD64" t="s">
-        <v>1158</v>
+        <v>1166</v>
       </c>
       <c r="KE64" t="s">
-        <v>1159</v>
+        <v>1167</v>
       </c>
       <c r="KF64" t="s">
-        <v>1160</v>
+        <v>1171</v>
       </c>
       <c r="KG64" t="s">
-        <v>1161</v>
+        <v>1172</v>
       </c>
       <c r="KH64" t="s">
-        <v>1162</v>
+        <v>1175</v>
       </c>
       <c r="KI64" t="s">
-        <v>1163</v>
+        <v>1176</v>
       </c>
       <c r="KJ64" t="s">
-        <v>1164</v>
+        <v>1177</v>
       </c>
       <c r="KK64" t="s">
-        <v>1165</v>
+        <v>1178</v>
       </c>
       <c r="KL64" t="s">
-        <v>1166</v>
+        <v>1179</v>
       </c>
       <c r="KM64" t="s">
-        <v>1167</v>
+        <v>1180</v>
       </c>
       <c r="KN64" t="s">
-        <v>1171</v>
+        <v>1181</v>
       </c>
       <c r="KO64" t="s">
-        <v>1172</v>
+        <v>1182</v>
       </c>
     </row>
   </sheetData>
